--- a/me507.xlsx
+++ b/me507.xlsx
@@ -1,33 +1,161 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Documents\GitHub\ME507\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203737B5-D546-4923-934D-81FBC4A2875E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7EDB68-FE29-4188-9B11-0F3CD96652ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="swd + uart" sheetId="1" r:id="rId1"/>
+    <sheet name="frequency" sheetId="2" r:id="rId2"/>
+    <sheet name="lab2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+  <si>
+    <t>ARR</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>hz</t>
+  </si>
+  <si>
+    <t>F_in</t>
+  </si>
+  <si>
+    <t>PSC</t>
+  </si>
+  <si>
+    <t>Pulse duty cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulse   </t>
+  </si>
+  <si>
+    <t>MCU Pin</t>
+  </si>
+  <si>
+    <t>Pxx</t>
+  </si>
+  <si>
+    <t>Pyy</t>
+  </si>
+  <si>
+    <t>Motor Driver Inputs</t>
+  </si>
+  <si>
+    <t>IN1</t>
+  </si>
+  <si>
+    <t>IN2</t>
+  </si>
+  <si>
+    <t>Motor Driver Outputs</t>
+  </si>
+  <si>
+    <t>OUT1</t>
+  </si>
+  <si>
+    <t>OUT2</t>
+  </si>
+  <si>
+    <t>MODE</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Brake</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>OFF (Hi-Z)</t>
+  </si>
+  <si>
+    <t>Coast</t>
+  </si>
+  <si>
+    <t>STM32</t>
+  </si>
+  <si>
+    <t>BOARD</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>IN3</t>
+  </si>
+  <si>
+    <t>IN4</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>lab1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,6 +1125,143 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>286423</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65265BD4-ED97-A93B-B989-495E654D47FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="1885950"/>
+          <a:ext cx="4820323" cy="1657581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114933</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CBE931-8A1F-9DAB-6A64-1FD7F1DEBA56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="4057650"/>
+          <a:ext cx="4534533" cy="1381318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57427</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>143086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FA5F1B-677F-A75B-CA5E-C7FF8F6750CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="7581900"/>
+          <a:ext cx="1981477" cy="1514686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1263,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AF31" sqref="AF31"/>
     </sheetView>
   </sheetViews>
@@ -1272,4 +1541,338 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F54DC3-BB3D-4591-9292-468740008B2D}">
+  <dimension ref="B2:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>96000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>C4/C3/(C5+1)-1</f>
+        <v>47999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f>C7*(C6+1)</f>
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>20000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>96000000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>C16/C15/(C17+1)-1</f>
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <f>C19*(C18+1)</f>
+        <v>2400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E42DF77-AA9F-41AD-831E-A32B625DB0D1}">
+  <dimension ref="B2:H37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me507.xlsx
+++ b/me507.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Documents\GitHub\ME507\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7EDB68-FE29-4188-9B11-0F3CD96652ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFF48C6-BA67-451E-8F8C-F12E8707958F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="swd + uart" sheetId="1" r:id="rId1"/>
     <sheet name="frequency" sheetId="2" r:id="rId2"/>
     <sheet name="lab2" sheetId="3" r:id="rId3"/>
+    <sheet name="Term Project" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>ARR</t>
   </si>
@@ -140,6 +141,51 @@
   </si>
   <si>
     <t>lab1</t>
+  </si>
+  <si>
+    <t>Limit Switch 1</t>
+  </si>
+  <si>
+    <t>Limit Switch 2</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>PB9</t>
+  </si>
+  <si>
+    <t>PB10</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Dir 1</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Dir 2</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>TX2</t>
+  </si>
+  <si>
+    <t>RX2</t>
+  </si>
+  <si>
+    <t>PB12</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AF31" sqref="AF31"/>
     </sheetView>
   </sheetViews>
@@ -1547,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F54DC3-BB3D-4591-9292-468740008B2D}">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1875,4 +1921,91 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2899EF7B-3EF8-48E8-8AEB-7F1021619889}">
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>